--- a/output_analysis/START_1_SEC_6.0_ENERGY_1.0_EV-FACTOR_11_EV_10_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_1_SEC_6.0_ENERGY_1.0_EV-FACTOR_11_EV_10_FLEX_300_TPS.txt.xlsx
@@ -434,310 +434,315 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6 32 180</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 2 8 15 28</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
       <c r="D2" t="n">
+        <v>94</v>
+      </c>
+      <c r="E2" t="n">
         <v>98</v>
       </c>
-      <c r="E2" t="n">
-        <v>91</v>
-      </c>
       <c r="F2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12 30 67 126 190</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20 23 107 192</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79</v>
+      </c>
+      <c r="E4" t="n">
         <v>98</v>
       </c>
-      <c r="G2" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14 78</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>46 216 241 277</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>54 76 155</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>64 82 102 271</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>98</v>
       </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>74 96 99 193</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>98</v>
       </c>
-      <c r="G3" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>101 138</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="D9" t="n">
+        <v>84</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17 19 70 202</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>105 110 199 203 213</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>118</v>
+      </c>
+      <c r="E10" t="n">
         <v>98</v>
       </c>
-      <c r="E4" t="n">
-        <v>82</v>
-      </c>
-      <c r="F4" t="n">
-        <v>98</v>
-      </c>
-      <c r="G4" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>27 31 99</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>131 139</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
         <v>100</v>
       </c>
-      <c r="E5" t="n">
-        <v>83</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>134 224</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72</v>
+      </c>
+      <c r="E12" t="n">
         <v>100</v>
       </c>
-      <c r="G5" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>34 114</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>49 83 121 157</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>74</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>51 71</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>73 211</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>92</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>104 126 130 217 221</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>82</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>111 146 178 181</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>59</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>127 172</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>98</v>
-      </c>
-      <c r="E12" t="n">
-        <v>53</v>
-      </c>
-      <c r="F12" t="n">
-        <v>98</v>
-      </c>
       <c r="G12" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
